--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unamachi\Desktop\code\cd3_sch_25022023\oci\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA394D-794C-401C-A76B-9E304635DD43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DE14B8-A10D-4E4B-B37F-21DDB8672D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="1256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="1269">
   <si>
     <t>Region</t>
   </si>
@@ -4104,13 +4104,40 @@
     <t>Network&amp;prod_vcn</t>
   </si>
   <si>
-    <t>Network&amp;nonprod_vcn</t>
-  </si>
-  <si>
     <t>Network&amp;Audit_In_Subcompartment</t>
   </si>
   <si>
     <t>AppDev&amp;Audit</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Network&amp;nonprod_vcn&amp;nonprod-web</t>
+  </si>
+  <si>
+    <t>Source Monitoring Details</t>
+  </si>
+  <si>
+    <t>Target Monitoring Details</t>
+  </si>
+  <si>
+    <t>Target Function Details</t>
+  </si>
+  <si>
+    <t>monitoring</t>
+  </si>
+  <si>
+    <t>SCH-05</t>
+  </si>
+  <si>
+    <t>logging to monitoring</t>
+  </si>
+  <si>
+    <t>Network&amp;network-vcn-logs&amp;all</t>
+  </si>
+  <si>
+    <t>Network&amp;[CpuUtilization,computeagent]</t>
   </si>
   <si>
     <r>
@@ -4148,7 +4175,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Row 4 below will collect Audit Logs for compartment AppDev and Row 5 will collect Audit Logs for compartment Network and its child compartments.</t>
+      <t xml:space="preserve">Row 4 below will collect Audit Logs for compartment AppDev and Row 5 will collect Audit Logs for compartment Network and its child compartments.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"To enable Source as Log Groups":</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Row 6 will collect logs for 'nonprod-web' log under Log Group 'nonprod_vcn' in compartment Network. Row 7 will collect all logs under Log Group 'prod_vcn' in compartment Network.</t>
     </r>
     <r>
       <rPr>
@@ -4170,7 +4219,73 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>is optional field.</t>
+      <t xml:space="preserve">is optional field.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Source Monitoring Details" : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Format is  &lt;compartment_name&gt;&amp;[namespace_name]. Ex: CD3Comp&amp;[oci_blockstorage,oci_computeagent]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Target Monitoring Details" : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Format is &lt;compartment_name&gt;&amp;[metric_name, namespace_name]. For example, check Row 9.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Target Function Details"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Format is &lt;compartment_name&gt;@&lt;application_name&gt;@&lt;function_name&gt;. For example, check Row 10.</t>
     </r>
     <r>
       <rPr>
@@ -4197,6 +4312,40 @@
                              Example: Operations.CostCenter=01;Users.Name=user01
 </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CIS LZ recommends to create SCH to collect audit logs for all compartments, VCN Flow Logs and Object Storage Logs and send to a particular target that can be read by SIEM.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SCH-06</t>
+  </si>
+  <si>
+    <t>stream to function</t>
+  </si>
+  <si>
+    <t>Security@subnet-events@test-func</t>
+  </si>
+  <si>
+    <t>SCH-07</t>
   </si>
 </sst>
 </file>
@@ -4474,7 +4623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4552,6 +4701,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -6521,10 +6671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6536,6 +6686,11 @@
     <row r="2" spans="1:1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>1172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1254</v>
       </c>
     </row>
   </sheetData>
@@ -6564,15 +6719,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1177</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -6824,20 +6979,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>1178</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="38"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -9671,22 +9826,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>1179</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="41"/>
     </row>
     <row r="2" spans="1:14" s="26" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -10118,39 +10273,46 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O648"/>
+  <dimension ref="A1:R649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="7" max="7" width="18.453125" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" customWidth="1"/>
-    <col min="15" max="15" width="8.90625" customWidth="1"/>
+    <col min="8" max="9" width="19.36328125" customWidth="1"/>
+    <col min="12" max="12" width="21.26953125" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="31.08984375" customWidth="1"/>
+    <col min="17" max="17" width="30.6328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="125" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
-        <v>1255</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-    </row>
-    <row r="2" spans="1:15" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -10176,28 +10338,37 @@
         <v>1184</v>
       </c>
       <c r="I2" s="27" t="s">
+        <v>1256</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>1185</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>1186</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="L2" s="27" t="s">
         <v>1187</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="M2" s="27" t="s">
         <v>1188</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="N2" s="27" t="s">
         <v>1189</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="O2" s="27" t="s">
         <v>1190</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="P2" s="27" t="s">
+        <v>1257</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>1258</v>
+      </c>
+      <c r="R2" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>1174</v>
       </c>
@@ -10208,15 +10379,18 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="8"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="N3" s="8"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>7</v>
       </c>
@@ -10227,29 +10401,32 @@
         <v>1191</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>1192</v>
+        <v>1197</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>1193</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>1194</v>
+        <v>1198</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22" t="s">
-        <v>1195</v>
+        <v>1247</v>
       </c>
       <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="22"/>
-    </row>
-    <row r="5" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+    </row>
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
@@ -10269,20 +10446,23 @@
         <v>1198</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="22"/>
+      <c r="L5" s="22" t="s">
         <v>1247</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+    </row>
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
@@ -10290,32 +10470,35 @@
         <v>574</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>1193</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
-      <c r="K6" s="22" t="s">
-        <v>1247</v>
-      </c>
+      <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="30"/>
+      <c r="M6" s="22" t="s">
+        <v>1195</v>
+      </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+    </row>
+    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -10323,7 +10506,7 @@
         <v>574</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>1200</v>
@@ -10342,13 +10525,16 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="22" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="22" t="s">
         <v>1248</v>
       </c>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
@@ -10356,7 +10542,7 @@
         <v>574</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>1202</v>
+        <v>1260</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>1203</v>
@@ -10371,47 +10557,114 @@
       <c r="H8" s="22" t="s">
         <v>1249</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="22" t="s">
         <v>1205</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="K8" s="22" t="s">
         <v>1250</v>
       </c>
-      <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>1265</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>574</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22" t="s">
+        <v>1249</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22" t="s">
+        <v>1267</v>
+      </c>
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E11" s="31"/>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E12" s="31"/>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E13" s="31"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
     </row>
@@ -12896,6 +13149,7 @@
       <c r="F636" s="31"/>
     </row>
     <row r="637" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E637" s="31"/>
       <c r="F637" s="31"/>
     </row>
     <row r="638" spans="5:6" x14ac:dyDescent="0.35">
@@ -12931,22 +13185,19 @@
     <row r="648" spans="6:6" x14ac:dyDescent="0.35">
       <c r="F648" s="31"/>
     </row>
+    <row r="649" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F649" s="31"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Source_Kind" sqref="E1:E3 E8:E636" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>"logging,streaming"</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{C4DFA3D7-FEF9-4102-B2C1-9A5710644E88}">
+      <formula1>"logging,streaming,monitoring"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Target_Kind" sqref="F1:F3 F5:F648" xr:uid="{00000000-0002-0000-0400-000001000000}">
-      <formula1>"loggingAnalytics,streaming,objectStorage,notifications"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Target_Kind" prompt="Accepted values should be one of them - (loggingAnalytics,streaming,objectStorage,notifications)" sqref="F4" xr:uid="{00000000-0002-0000-0400-000002000000}">
-      <formula1>"loggingAnalytics,streaming,objectStorage,notifications"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Source_Kind" prompt="Source kind should be one of them - (logging,monitoring,streaming)" sqref="E4:E7" xr:uid="{00000000-0002-0000-0400-000003000000}">
-      <formula1>"logging,streaming"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{B4A48907-D395-44AB-8063-4FF2E423056B}">
+      <formula1>"loggingAnalytics,streaming,monitoring,objectStorage,notifications,functions"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\unamachi\Desktop\code\cd3_sch_25022023\oci\cd3_automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DE14B8-A10D-4E4B-B37F-21DDB8672D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D2D4F-677B-4054-B8A7-2F207F4691D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10276,7 +10276,7 @@
   <dimension ref="A1:R649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10290,7 +10290,7 @@
     <col min="18" max="18" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="197" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>1264</v>
       </c>

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\cd3_automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D2D4F-677B-4054-B8A7-2F207F4691D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3F78AC-11A4-4F90-B5E5-5EA7E4E9AC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1268">
   <si>
     <t>Region</t>
   </si>
@@ -275,9 +275,6 @@
     <t>createservicegateway</t>
   </si>
   <si>
-    <t>deleteservicegateway.begin</t>
-  </si>
-  <si>
     <t>deleteservicegateway.end</t>
   </si>
   <si>
@@ -3660,34 +3657,6 @@
   </si>
   <si>
     <t>integration</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">CD3 Automation Toolkit Release - v10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Added Service Connector Hub, Updated Notifications tab to show sample data for SMS protocol</t>
-    </r>
   </si>
   <si>
     <t>abc@oracle.com</t>
@@ -4346,6 +4315,24 @@
   </si>
   <si>
     <t>SCH-07</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CD3 Automation Toolkit Release - v11
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6674,7 +6661,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6685,12 +6672,12 @@
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
-        <v>1172</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
   </sheetData>
@@ -6703,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6720,7 +6707,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -6757,10 +6744,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>8</v>
@@ -6769,7 +6756,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -6778,10 +6765,10 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>10</v>
@@ -6790,7 +6777,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G4" s="8"/>
     </row>
@@ -6799,19 +6786,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G5" s="8"/>
     </row>
@@ -6820,19 +6807,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G6" s="8"/>
     </row>
@@ -6841,19 +6828,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -6862,19 +6849,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -6883,25 +6870,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>1161</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>1162</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -6915,19 +6902,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="G11" s="22"/>
     </row>
@@ -6954,10 +6941,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="A2 A1:L1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6980,7 +6967,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="37"/>
@@ -7037,13 +7024,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>19</v>
@@ -7055,16 +7042,16 @@
         <v>21</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L3" s="8"/>
     </row>
@@ -7073,13 +7060,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>19</v>
@@ -7091,16 +7078,16 @@
         <v>21</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L4" s="8"/>
     </row>
@@ -7109,13 +7096,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>19</v>
@@ -7127,16 +7114,16 @@
         <v>21</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L5" s="8"/>
     </row>
@@ -7145,13 +7132,13 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>19</v>
@@ -7163,16 +7150,16 @@
         <v>21</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="J6" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L6" s="8"/>
     </row>
@@ -7181,13 +7168,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
@@ -7199,16 +7186,16 @@
         <v>21</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L7" s="8"/>
     </row>
@@ -7217,13 +7204,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>19</v>
@@ -7235,16 +7222,16 @@
         <v>21</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L8" s="8"/>
     </row>
@@ -7253,13 +7240,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>19</v>
@@ -7271,16 +7258,16 @@
         <v>21</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>576</v>
       </c>
       <c r="J9" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L9" s="8"/>
     </row>
@@ -7289,13 +7276,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>19</v>
@@ -7307,16 +7294,16 @@
         <v>21</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J10" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L10" s="8"/>
     </row>
@@ -7325,13 +7312,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>19</v>
@@ -7343,16 +7330,16 @@
         <v>21</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J11" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L11" s="8"/>
     </row>
@@ -7361,13 +7348,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>19</v>
@@ -7379,16 +7366,16 @@
         <v>21</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="J12" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -7397,13 +7384,13 @@
         <v>7</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>19</v>
@@ -7415,16 +7402,16 @@
         <v>21</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="J13" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L13" s="8"/>
     </row>
@@ -7433,13 +7420,13 @@
         <v>7</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>19</v>
@@ -7451,16 +7438,16 @@
         <v>21</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J14" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -7469,13 +7456,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>19</v>
@@ -7487,16 +7474,16 @@
         <v>21</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J15" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L15" s="8"/>
     </row>
@@ -7505,13 +7492,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>19</v>
@@ -7523,16 +7510,16 @@
         <v>21</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J16" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L16" s="8"/>
     </row>
@@ -7541,13 +7528,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>19</v>
@@ -7559,16 +7546,16 @@
         <v>21</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="J17" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L17" s="8"/>
     </row>
@@ -7577,13 +7564,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>19</v>
@@ -7595,16 +7582,16 @@
         <v>21</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J18" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -7613,13 +7600,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>19</v>
@@ -7631,16 +7618,16 @@
         <v>21</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J19" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L19" s="8"/>
     </row>
@@ -7649,13 +7636,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>19</v>
@@ -7667,16 +7654,16 @@
         <v>21</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="J20" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L20" s="8"/>
     </row>
@@ -7685,13 +7672,13 @@
         <v>7</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>19</v>
@@ -7703,16 +7690,16 @@
         <v>21</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="J21" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L21" s="8"/>
     </row>
@@ -7721,13 +7708,13 @@
         <v>7</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>19</v>
@@ -7742,13 +7729,13 @@
         <v>22</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L22" s="8"/>
     </row>
@@ -7757,13 +7744,13 @@
         <v>7</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C23" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>19</v>
@@ -7778,13 +7765,13 @@
         <v>22</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L23" s="8"/>
     </row>
@@ -7793,13 +7780,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C24" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>19</v>
@@ -7814,13 +7801,13 @@
         <v>22</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L24" s="8"/>
     </row>
@@ -7829,13 +7816,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C25" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>19</v>
@@ -7850,13 +7837,13 @@
         <v>22</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J25" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L25" s="8"/>
     </row>
@@ -7865,13 +7852,13 @@
         <v>7</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C26" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>19</v>
@@ -7886,13 +7873,13 @@
         <v>22</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J26" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L26" s="8"/>
     </row>
@@ -7901,13 +7888,13 @@
         <v>7</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D27" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>19</v>
@@ -7922,13 +7909,13 @@
         <v>22</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J27" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L27" s="8"/>
     </row>
@@ -7937,13 +7924,13 @@
         <v>7</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>19</v>
@@ -7958,13 +7945,13 @@
         <v>22</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -7973,13 +7960,13 @@
         <v>7</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C29" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D29" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>19</v>
@@ -7994,13 +7981,13 @@
         <v>22</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J29" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L29" s="8"/>
     </row>
@@ -8009,13 +7996,13 @@
         <v>7</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C30" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>19</v>
@@ -8030,13 +8017,13 @@
         <v>22</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L30" s="8"/>
     </row>
@@ -8045,13 +8032,13 @@
         <v>7</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C31" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>19</v>
@@ -8066,13 +8053,13 @@
         <v>22</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L31" s="8"/>
     </row>
@@ -8081,13 +8068,13 @@
         <v>7</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C32" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D32" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>19</v>
@@ -8102,13 +8089,13 @@
         <v>22</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J32" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L32" s="8"/>
     </row>
@@ -8117,13 +8104,13 @@
         <v>7</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C33" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>19</v>
@@ -8138,13 +8125,13 @@
         <v>22</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L33" s="8"/>
     </row>
@@ -8153,13 +8140,13 @@
         <v>7</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C34" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>19</v>
@@ -8174,13 +8161,13 @@
         <v>22</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L34" s="8"/>
     </row>
@@ -8189,13 +8176,13 @@
         <v>7</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>19</v>
@@ -8210,13 +8197,13 @@
         <v>22</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J35" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L35" s="8"/>
     </row>
@@ -8225,13 +8212,13 @@
         <v>7</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C36" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>19</v>
@@ -8246,13 +8233,13 @@
         <v>22</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J36" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L36" s="8"/>
     </row>
@@ -8261,13 +8248,13 @@
         <v>7</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>19</v>
@@ -8282,13 +8269,13 @@
         <v>22</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J37" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L37" s="8"/>
     </row>
@@ -8297,13 +8284,13 @@
         <v>7</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C38" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D38" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>19</v>
@@ -8324,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L38" s="8"/>
     </row>
@@ -8333,13 +8320,13 @@
         <v>7</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C39" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>19</v>
@@ -8360,7 +8347,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L39" s="8"/>
     </row>
@@ -8369,13 +8356,13 @@
         <v>7</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>19</v>
@@ -8396,7 +8383,7 @@
         <v>1</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L40" s="8"/>
     </row>
@@ -8405,13 +8392,13 @@
         <v>7</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>19</v>
@@ -8432,7 +8419,7 @@
         <v>1</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L41" s="8"/>
     </row>
@@ -8441,13 +8428,13 @@
         <v>7</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>19</v>
@@ -8468,7 +8455,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L42" s="8"/>
     </row>
@@ -8477,13 +8464,13 @@
         <v>7</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C43" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>19</v>
@@ -8504,7 +8491,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L43" s="8"/>
     </row>
@@ -8513,13 +8500,13 @@
         <v>7</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C44" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D44" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>19</v>
@@ -8540,7 +8527,7 @@
         <v>1</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L44" s="8"/>
     </row>
@@ -8549,13 +8536,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C45" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>19</v>
@@ -8576,7 +8563,7 @@
         <v>1</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L45" s="8"/>
     </row>
@@ -8585,13 +8572,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C46" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>19</v>
@@ -8612,7 +8599,7 @@
         <v>1</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L46" s="8"/>
     </row>
@@ -8621,13 +8608,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C47" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>19</v>
@@ -8648,7 +8635,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L47" s="8"/>
     </row>
@@ -8657,13 +8644,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C48" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E48" s="8" t="s">
         <v>19</v>
@@ -8684,7 +8671,7 @@
         <v>1</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L48" s="8"/>
     </row>
@@ -8693,13 +8680,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>19</v>
@@ -8714,13 +8701,13 @@
         <v>22</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="J49" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L49" s="8"/>
     </row>
@@ -8729,13 +8716,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C50" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D50" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E50" s="8" t="s">
         <v>19</v>
@@ -8756,7 +8743,7 @@
         <v>1</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L50" s="8"/>
     </row>
@@ -8765,13 +8752,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C51" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>19</v>
@@ -8792,7 +8779,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L51" s="8"/>
     </row>
@@ -8801,13 +8788,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C52" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>19</v>
@@ -8828,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L52" s="8"/>
     </row>
@@ -8837,13 +8824,13 @@
         <v>7</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C53" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>19</v>
@@ -8864,7 +8851,7 @@
         <v>1</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L53" s="8"/>
     </row>
@@ -8873,13 +8860,13 @@
         <v>7</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C54" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>19</v>
@@ -8900,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L54" s="8"/>
     </row>
@@ -8909,13 +8896,13 @@
         <v>7</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C55" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>19</v>
@@ -8936,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L55" s="8"/>
     </row>
@@ -8945,13 +8932,13 @@
         <v>7</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>19</v>
@@ -8972,7 +8959,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L56" s="8"/>
     </row>
@@ -8981,13 +8968,13 @@
         <v>7</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C57" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>19</v>
@@ -9008,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L57" s="8"/>
     </row>
@@ -9017,13 +9004,13 @@
         <v>7</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C58" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>19</v>
@@ -9044,7 +9031,7 @@
         <v>1</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L58" s="8"/>
     </row>
@@ -9053,13 +9040,13 @@
         <v>7</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C59" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>19</v>
@@ -9080,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L59" s="8"/>
     </row>
@@ -9089,13 +9076,13 @@
         <v>7</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>19</v>
@@ -9116,7 +9103,7 @@
         <v>1</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L60" s="8"/>
     </row>
@@ -9125,13 +9112,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>1124</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>1125</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>19</v>
@@ -9152,22 +9139,21 @@
         <v>1</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="L61" s="8"/>
-    </row>
-    <row r="62" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>1119</v>
+        <v>572</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1124</v>
+        <v>1155</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1125</v>
+        <v>1151</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>19</v>
@@ -9179,30 +9165,31 @@
         <v>21</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="J62" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1148</v>
+      </c>
+      <c r="L62" s="8"/>
+    </row>
+    <row r="63" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>19</v>
@@ -9214,16 +9201,16 @@
         <v>21</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I63" s="8" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="J63" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="L63" s="8"/>
     </row>
@@ -9232,13 +9219,13 @@
         <v>7</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>19</v>
@@ -9250,16 +9237,16 @@
         <v>21</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="J64" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="L64" s="8"/>
     </row>
@@ -9268,13 +9255,13 @@
         <v>7</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>19</v>
@@ -9286,25 +9273,25 @@
         <v>21</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I65" s="8" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="J65" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="L65" s="8"/>
     </row>
-    <row r="66" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>573</v>
+        <v>1138</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>1156</v>
@@ -9322,25 +9309,25 @@
         <v>21</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>208</v>
+        <v>451</v>
       </c>
       <c r="J66" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>1149</v>
+        <v>1130</v>
       </c>
       <c r="L66" s="8"/>
     </row>
-    <row r="67" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>1157</v>
@@ -9358,16 +9345,16 @@
         <v>21</v>
       </c>
       <c r="H67" s="8" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>452</v>
+        <v>101</v>
       </c>
       <c r="J67" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="L67" s="8"/>
     </row>
@@ -9376,13 +9363,13 @@
         <v>7</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>19</v>
@@ -9394,16 +9381,16 @@
         <v>21</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I68" s="8" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="J68" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L68" s="8"/>
     </row>
@@ -9412,13 +9399,13 @@
         <v>7</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>19</v>
@@ -9430,16 +9417,16 @@
         <v>21</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="J69" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L69" s="8"/>
     </row>
@@ -9448,13 +9435,13 @@
         <v>7</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>19</v>
@@ -9466,20 +9453,20 @@
         <v>21</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>183</v>
+        <v>144</v>
       </c>
       <c r="J70" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="L70" s="8"/>
     </row>
-    <row r="71" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>7</v>
       </c>
@@ -9502,16 +9489,16 @@
         <v>21</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>145</v>
+        <v>1169</v>
       </c>
       <c r="J71" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="L71" s="8"/>
     </row>
@@ -9520,13 +9507,13 @@
         <v>7</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>19</v>
@@ -9538,16 +9525,16 @@
         <v>21</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="J72" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L72" s="8"/>
     </row>
@@ -9556,13 +9543,13 @@
         <v>7</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>19</v>
@@ -9574,16 +9561,16 @@
         <v>21</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>1169</v>
+        <v>1149</v>
       </c>
       <c r="J73" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L73" s="8"/>
     </row>
@@ -9592,13 +9579,13 @@
         <v>7</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>19</v>
@@ -9610,7 +9597,7 @@
         <v>21</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I74" s="8" t="s">
         <v>1150</v>
@@ -9619,7 +9606,7 @@
         <v>1</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L74" s="8"/>
     </row>
@@ -9628,13 +9615,13 @@
         <v>7</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>1140</v>
+        <v>572</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>1155</v>
+        <v>1162</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>19</v>
@@ -9646,31 +9633,31 @@
         <v>21</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>72</v>
+        <v>1163</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>1151</v>
+        <v>1164</v>
       </c>
       <c r="J75" s="8" t="b">
         <v>1</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L75" s="8"/>
+        <v>1160</v>
+      </c>
+      <c r="L75" s="9"/>
     </row>
     <row r="76" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>19</v>
@@ -9682,7 +9669,7 @@
         <v>21</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>1165</v>
@@ -9691,7 +9678,7 @@
         <v>1</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="L76" s="9"/>
     </row>
@@ -9700,13 +9687,13 @@
         <v>7</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>19</v>
@@ -9718,7 +9705,7 @@
         <v>21</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>1166</v>
@@ -9727,62 +9714,26 @@
         <v>1</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="L77" s="9"/>
-    </row>
-    <row r="78" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A78" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>1163</v>
-      </c>
-      <c r="E78" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>1164</v>
-      </c>
-      <c r="I78" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="J78" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K78" s="8" t="s">
-        <v>1161</v>
-      </c>
-      <c r="L78" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I221:I1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I220:I1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>INDIRECT(#REF!)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I74:I220 I3:I71" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="I73:I219 I3:I70" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>INDIRECT(H3)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H219" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" showInputMessage="1" sqref="I71:I72" xr:uid="{00000000-0002-0000-0200-000003000000}">
+      <formula1>INDIRECT(H71)</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="H3:H218" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>Headers</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" sqref="I72:I73" xr:uid="{00000000-0002-0000-0200-000003000000}">
-      <formula1>INDIRECT(H72)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9806,8 +9757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="L2 A1:N1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9827,7 +9778,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="39" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -9851,37 +9802,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H2" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="18" t="s">
         <v>645</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="18" t="s">
         <v>646</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="L2" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>649</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>650</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>6</v>
@@ -9892,35 +9843,35 @@
         <v>7</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>1119</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>1120</v>
       </c>
       <c r="D3" s="24" t="b">
         <v>1</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I3" s="24" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J3" s="24" t="s">
         <v>1116</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>1117</v>
-      </c>
       <c r="K3" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M3" s="24"/>
       <c r="N3" s="25"/>
@@ -9930,35 +9881,35 @@
         <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
@@ -9968,35 +9919,35 @@
         <v>7</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="D5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="9"/>
@@ -10006,35 +9957,35 @@
         <v>7</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="D6" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M6" s="8"/>
       <c r="N6" s="9"/>
@@ -10044,35 +9995,35 @@
         <v>7</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="D7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M7" s="8"/>
       <c r="N7" s="9"/>
@@ -10082,35 +10033,35 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
@@ -10120,35 +10071,35 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D9" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="9"/>
@@ -10158,35 +10109,35 @@
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="D10" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="9"/>
@@ -10196,35 +10147,35 @@
         <v>7</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="D11" s="8" t="b">
         <v>1</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="9"/>
@@ -10292,7 +10243,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="197" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -10320,49 +10271,49 @@
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>1181</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="H2" s="27" t="s">
         <v>1182</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="I2" s="27" t="s">
+        <v>1254</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>1183</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="K2" s="27" t="s">
         <v>1184</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="L2" s="27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>1186</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>1188</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="Q2" s="27" t="s">
         <v>1256</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>1185</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>1187</v>
-      </c>
-      <c r="M2" s="27" t="s">
-        <v>1188</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>1189</v>
-      </c>
-      <c r="O2" s="27" t="s">
-        <v>1190</v>
-      </c>
-      <c r="P2" s="27" t="s">
-        <v>1257</v>
-      </c>
-      <c r="Q2" s="27" t="s">
-        <v>1258</v>
       </c>
       <c r="R2" s="29" t="s">
         <v>6</v>
@@ -10370,7 +10321,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -10395,29 +10346,29 @@
         <v>7</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>1191</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>1193</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="22"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
       <c r="L4" s="22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="M4" s="22"/>
       <c r="N4" s="30"/>
@@ -10431,29 +10382,29 @@
         <v>7</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F5" s="22" t="s">
         <v>1196</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>1198</v>
-      </c>
       <c r="G5" s="22" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="M5" s="22"/>
       <c r="N5" s="30"/>
@@ -10467,22 +10418,22 @@
         <v>7</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="D6" s="22" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>1192</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>1193</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>1194</v>
-      </c>
       <c r="G6" s="22" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -10490,7 +10441,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
@@ -10503,22 +10454,22 @@
         <v>7</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
@@ -10528,7 +10479,7 @@
       <c r="M7" s="22"/>
       <c r="N7" s="30"/>
       <c r="O7" s="22" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -10539,30 +10490,30 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
@@ -10577,22 +10528,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
@@ -10603,7 +10554,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
@@ -10613,23 +10564,23 @@
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="22" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -10640,7 +10591,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="R10" s="22"/>
     </row>
@@ -13223,268 +13174,268 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="32" t="s">
         <v>652</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>653</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="32" t="s">
         <v>655</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>656</v>
-      </c>
       <c r="D3" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="32" t="s">
         <v>658</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>659</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>661</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B6" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B9" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>7</v>
@@ -13492,161 +13443,161 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="8" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="8" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="8" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -13722,858 +13673,858 @@
   <sheetData>
     <row r="1" spans="1:54" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>661</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>663</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>664</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>665</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>666</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>667</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>669</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>670</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>671</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>672</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>673</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>674</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
+        <v>660</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="V1" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>661</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>677</v>
-      </c>
-      <c r="U1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>678</v>
       </c>
-      <c r="V1" s="13" t="s">
-        <v>676</v>
-      </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>679</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>680</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>684</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>685</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>686</v>
       </c>
-      <c r="AE1" s="13" t="s">
+      <c r="AF1" s="13" t="s">
         <v>687</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AG1" s="13" t="s">
+        <v>654</v>
+      </c>
+      <c r="AH1" s="13" t="s">
         <v>688</v>
       </c>
-      <c r="AG1" s="13" t="s">
-        <v>655</v>
-      </c>
-      <c r="AH1" s="13" t="s">
+      <c r="AI1" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="AI1" s="13" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>690</v>
       </c>
-      <c r="AJ1" s="13" t="s">
+      <c r="AK1" s="13" t="s">
         <v>691</v>
       </c>
-      <c r="AK1" s="13" t="s">
+      <c r="AL1" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="AL1" s="13" t="s">
+      <c r="AM1" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="AM1" s="13" t="s">
+      <c r="AN1" s="13" t="s">
         <v>694</v>
       </c>
-      <c r="AN1" s="13" t="s">
+      <c r="AO1" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="AO1" s="13" t="s">
+      <c r="AP1" s="13" t="s">
         <v>696</v>
       </c>
-      <c r="AP1" s="13" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>697</v>
       </c>
-      <c r="AQ1" s="13" t="s">
+      <c r="AR1" s="13" t="s">
         <v>698</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
         <v>699</v>
       </c>
-      <c r="AS1" s="13" t="s">
+      <c r="AT1" s="13" t="s">
         <v>700</v>
       </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="AU1" s="13" t="s">
+      <c r="AV1" s="13" t="s">
         <v>702</v>
       </c>
-      <c r="AV1" s="13" t="s">
+      <c r="AW1" s="13" t="s">
         <v>703</v>
       </c>
-      <c r="AW1" s="13" t="s">
+      <c r="AX1" s="13" t="s">
         <v>704</v>
       </c>
-      <c r="AX1" s="13" t="s">
+      <c r="AY1" s="13" t="s">
         <v>705</v>
       </c>
-      <c r="AY1" s="13" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>706</v>
       </c>
-      <c r="AZ1" s="13" t="s">
+      <c r="BA1" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="BA1" s="13" t="s">
+      <c r="BB1" s="13" t="s">
         <v>708</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="14" t="s">
+        <v>709</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>711</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="E2" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>715</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>719</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>720</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>724</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>726</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>728</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="X2" s="14" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>732</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>734</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>737</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>738</v>
+      </c>
+      <c r="AG2" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="AH2" s="14" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>715</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>716</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>718</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>720</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>721</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>722</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>725</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>726</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>727</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>728</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>729</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>730</v>
-      </c>
-      <c r="X2" s="14" t="s">
-        <v>731</v>
-      </c>
-      <c r="Y2" s="14" t="s">
-        <v>732</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>733</v>
-      </c>
-      <c r="AA2" s="14" t="s">
-        <v>734</v>
-      </c>
-      <c r="AB2" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="AC2" s="14" t="s">
-        <v>736</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>738</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>739</v>
-      </c>
-      <c r="AG2" s="14" t="s">
-        <v>711</v>
-      </c>
-      <c r="AH2" s="14" t="s">
-        <v>740</v>
-      </c>
-      <c r="AI2" s="14" t="s">
+      <c r="AK2" s="14" t="s">
         <v>741</v>
       </c>
-      <c r="AJ2" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="AK2" s="14" t="s">
+      <c r="AL2" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="AL2" s="14" t="s">
+      <c r="AM2" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="AM2" s="14" t="s">
+      <c r="AN2" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="AN2" s="14" t="s">
+      <c r="AO2" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="AO2" s="14" t="s">
+      <c r="AP2" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AQ2" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AR2" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="AR2" s="14" t="s">
+      <c r="AS2" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="AS2" s="14" t="s">
+      <c r="AT2" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="AT2" s="14" t="s">
+      <c r="AU2" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="AU2" s="14" t="s">
+      <c r="AV2" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="AV2" s="14" t="s">
+      <c r="AW2" s="14" t="s">
         <v>753</v>
       </c>
-      <c r="AW2" s="14" t="s">
+      <c r="AX2" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AY2" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AZ2" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="AZ2" s="14" t="s">
+      <c r="BA2" s="14" t="s">
         <v>757</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BB2" s="14" t="s">
         <v>758</v>
-      </c>
-      <c r="BB2" s="14" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>761</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>762</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="I3" t="s">
         <v>763</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>764</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" t="s">
         <v>773</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" t="s">
         <v>782</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>783</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>784</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>785</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>786</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>787</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>788</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>789</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AL3" t="s">
         <v>790</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>791</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AN3" t="s">
         <v>792</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AO3" t="s">
         <v>793</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AP3" t="s">
+        <v>743</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>794</v>
       </c>
-      <c r="AP3" t="s">
-        <v>744</v>
-      </c>
-      <c r="AQ3" t="s">
+      <c r="AR3" t="s">
+        <v>794</v>
+      </c>
+      <c r="AS3" t="s">
         <v>795</v>
       </c>
-      <c r="AR3" t="s">
-        <v>795</v>
-      </c>
-      <c r="AS3" t="s">
+      <c r="AT3" t="s">
         <v>796</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AV3" t="s">
         <v>797</v>
       </c>
-      <c r="AV3" t="s">
+      <c r="AW3" t="s">
         <v>798</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AX3" t="s">
         <v>799</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>800</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>801</v>
       </c>
-      <c r="AZ3" t="s">
+      <c r="BB3" t="s">
         <v>802</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="F4" s="14" t="s">
         <v>805</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="H4" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="14" t="s">
         <v>807</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="J4" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="K4" s="14" t="s">
         <v>809</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="L4" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="M4" s="14" t="s">
         <v>811</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>813</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="Q4" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="R4" s="14" t="s">
+      <c r="S4" s="14" t="s">
+        <v>711</v>
+      </c>
+      <c r="T4" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="S4" s="14" t="s">
-        <v>712</v>
-      </c>
-      <c r="T4" s="14" t="s">
+      <c r="U4" s="14" t="s">
         <v>817</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="V4" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="14" t="s">
         <v>819</v>
       </c>
-      <c r="W4" s="14" t="s">
+      <c r="X4" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="X4" s="14" t="s">
+      <c r="Y4" s="14" t="s">
         <v>821</v>
       </c>
-      <c r="Y4" s="14" t="s">
+      <c r="Z4" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="Z4" s="14" t="s">
+      <c r="AA4" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="AA4" s="14" t="s">
+      <c r="AB4" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="AB4" s="14" t="s">
+      <c r="AC4" s="14" t="s">
         <v>825</v>
       </c>
-      <c r="AC4" s="14" t="s">
+      <c r="AD4" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="AD4" s="14" t="s">
+      <c r="AF4" s="14" t="s">
         <v>827</v>
       </c>
-      <c r="AF4" s="14" t="s">
+      <c r="AG4" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="AG4" s="14" t="s">
+      <c r="AH4" s="14" t="s">
         <v>829</v>
       </c>
-      <c r="AH4" s="14" t="s">
+      <c r="AI4" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="AI4" s="14" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>831</v>
       </c>
-      <c r="AJ4" s="14" t="s">
+      <c r="AK4" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="AK4" s="14" t="s">
+      <c r="AL4" s="14" t="s">
         <v>833</v>
       </c>
-      <c r="AL4" s="14" t="s">
+      <c r="AM4" s="14" t="s">
         <v>834</v>
       </c>
-      <c r="AM4" s="14" t="s">
+      <c r="AN4" s="14" t="s">
         <v>835</v>
       </c>
-      <c r="AN4" s="14" t="s">
+      <c r="AO4" s="14" t="s">
         <v>836</v>
       </c>
-      <c r="AO4" s="14" t="s">
+      <c r="AP4" s="14" t="s">
         <v>837</v>
       </c>
-      <c r="AP4" s="14" t="s">
+      <c r="AQ4" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="AR4" s="14" t="s">
+        <v>718</v>
+      </c>
+      <c r="AS4" s="14" t="s">
         <v>838</v>
       </c>
-      <c r="AQ4" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="AR4" s="14" t="s">
-        <v>719</v>
-      </c>
-      <c r="AS4" s="14" t="s">
+      <c r="AT4" s="14" t="s">
         <v>839</v>
       </c>
-      <c r="AT4" s="14" t="s">
+      <c r="AV4" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="AV4" s="14" t="s">
+      <c r="AW4" s="14" t="s">
         <v>841</v>
       </c>
-      <c r="AW4" s="14" t="s">
+      <c r="AX4" s="14" t="s">
         <v>842</v>
       </c>
-      <c r="AX4" s="14" t="s">
+      <c r="AY4" s="14" t="s">
         <v>843</v>
       </c>
-      <c r="AY4" s="14" t="s">
+      <c r="AZ4" s="14" t="s">
         <v>844</v>
       </c>
-      <c r="AZ4" s="14" t="s">
+      <c r="BB4" s="14" t="s">
         <v>845</v>
-      </c>
-      <c r="BB4" s="14" t="s">
-        <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="I5" t="s">
         <v>849</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>850</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q5" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="R5" s="2" t="s">
         <v>857</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>858</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" t="s">
+        <v>858</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="V5" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="X5" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="AA5" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AD5" t="s">
         <v>867</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AF5" t="s">
         <v>868</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>869</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>870</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AJ5" t="s">
         <v>871</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>872</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AL5" t="s">
         <v>873</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
+        <v>718</v>
+      </c>
+      <c r="AN5" t="s">
         <v>874</v>
       </c>
-      <c r="AM5" t="s">
-        <v>719</v>
-      </c>
-      <c r="AN5" t="s">
+      <c r="AO5" t="s">
         <v>875</v>
       </c>
-      <c r="AO5" t="s">
+      <c r="AP5" t="s">
         <v>876</v>
       </c>
-      <c r="AP5" t="s">
+      <c r="AQ5" t="s">
         <v>877</v>
       </c>
-      <c r="AQ5" t="s">
+      <c r="AR5" t="s">
+        <v>877</v>
+      </c>
+      <c r="AS5" t="s">
         <v>878</v>
       </c>
-      <c r="AR5" t="s">
-        <v>878</v>
-      </c>
-      <c r="AS5" t="s">
+      <c r="AT5" t="s">
         <v>879</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="AV5" t="s">
         <v>880</v>
       </c>
-      <c r="AV5" t="s">
+      <c r="AW5" t="s">
         <v>881</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AX5" t="s">
         <v>882</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AZ5" t="s">
         <v>883</v>
       </c>
-      <c r="AZ5" t="s">
+      <c r="BB5" t="s">
         <v>884</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="6" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C6" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>886</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="H6" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="I6" s="14" t="s">
         <v>888</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="14" t="s">
         <v>889</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="14" t="s">
         <v>890</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="L6" s="14" t="s">
         <v>891</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="M6" s="14" t="s">
         <v>892</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="N6" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="N6" s="14" t="s">
+      <c r="P6" s="14" t="s">
         <v>894</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
         <v>895</v>
       </c>
-      <c r="Q6" s="14" t="s">
+      <c r="U6" s="14" t="s">
         <v>896</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>897</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="W6" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="Y6" s="14" t="s">
         <v>898</v>
       </c>
-      <c r="W6" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>713</v>
-      </c>
-      <c r="Y6" s="14" t="s">
+      <c r="Z6" s="14" t="s">
         <v>899</v>
       </c>
-      <c r="Z6" s="14" t="s">
+      <c r="AF6" s="14" t="s">
         <v>900</v>
       </c>
-      <c r="AF6" s="14" t="s">
+      <c r="AH6" s="14" t="s">
         <v>901</v>
       </c>
-      <c r="AH6" s="14" t="s">
+      <c r="AJ6" s="14" t="s">
         <v>902</v>
       </c>
-      <c r="AJ6" s="14" t="s">
+      <c r="AK6" s="14" t="s">
         <v>903</v>
       </c>
-      <c r="AK6" s="14" t="s">
+      <c r="AL6" s="14" t="s">
         <v>904</v>
       </c>
-      <c r="AL6" s="14" t="s">
+      <c r="AM6" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="AN6" s="14" t="s">
         <v>905</v>
       </c>
-      <c r="AM6" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="AN6" s="14" t="s">
+      <c r="AO6" s="14" t="s">
         <v>906</v>
       </c>
-      <c r="AO6" s="14" t="s">
+      <c r="AP6" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="AP6" s="14" t="s">
+      <c r="AQ6" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="AR6" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="AS6" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="AQ6" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="AR6" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="AS6" s="14" t="s">
+      <c r="AT6" s="14" t="s">
         <v>909</v>
       </c>
-      <c r="AT6" s="14" t="s">
+      <c r="AW6" s="14" t="s">
         <v>910</v>
       </c>
-      <c r="AW6" s="14" t="s">
+      <c r="AX6" s="14" t="s">
         <v>911</v>
-      </c>
-      <c r="AX6" s="14" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.35">
@@ -14582,903 +14533,903 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" t="s">
+        <v>913</v>
+      </c>
+      <c r="J7" t="s">
         <v>914</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>917</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Q7" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="U7" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AH7" t="s">
+        <v>921</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>922</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>923</v>
       </c>
-      <c r="AK7" t="s">
+      <c r="AM7" t="s">
         <v>924</v>
       </c>
-      <c r="AM7" t="s">
+      <c r="AO7" t="s">
         <v>925</v>
       </c>
-      <c r="AO7" t="s">
+      <c r="AP7" t="s">
+        <v>831</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>926</v>
       </c>
-      <c r="AP7" t="s">
-        <v>832</v>
-      </c>
-      <c r="AQ7" t="s">
+      <c r="AR7" t="s">
+        <v>926</v>
+      </c>
+      <c r="AS7" t="s">
         <v>927</v>
       </c>
-      <c r="AR7" t="s">
-        <v>927</v>
-      </c>
-      <c r="AS7" t="s">
+      <c r="AT7" t="s">
         <v>928</v>
       </c>
-      <c r="AT7" t="s">
+      <c r="AW7" t="s">
         <v>929</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AX7" t="s">
         <v>930</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="8" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E8" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>932</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="K8" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="L8" s="14" t="s">
+      <c r="M8" s="14" t="s">
         <v>935</v>
       </c>
-      <c r="M8" s="14" t="s">
+      <c r="N8" s="14" t="s">
         <v>936</v>
       </c>
-      <c r="N8" s="14" t="s">
+      <c r="P8" s="14" t="s">
         <v>937</v>
       </c>
-      <c r="P8" s="14" t="s">
+      <c r="U8" s="14" t="s">
         <v>938</v>
       </c>
-      <c r="U8" s="14" t="s">
+      <c r="W8" s="14" t="s">
         <v>939</v>
       </c>
-      <c r="W8" s="14" t="s">
+      <c r="X8" s="14" t="s">
         <v>940</v>
       </c>
-      <c r="X8" s="14" t="s">
+      <c r="Y8" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="AH8" s="14" t="s">
         <v>941</v>
       </c>
-      <c r="Y8" s="14" t="s">
-        <v>777</v>
-      </c>
-      <c r="AH8" s="14" t="s">
+      <c r="AK8" s="14" t="s">
         <v>942</v>
       </c>
-      <c r="AK8" s="14" t="s">
+      <c r="AM8" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="AO8" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="AM8" s="14" t="s">
-        <v>810</v>
-      </c>
-      <c r="AO8" s="14" t="s">
+      <c r="AP8" s="14" t="s">
         <v>944</v>
       </c>
-      <c r="AP8" s="14" t="s">
+      <c r="AW8" s="14" t="s">
         <v>945</v>
       </c>
-      <c r="AW8" s="14" t="s">
+      <c r="AX8" s="14" t="s">
         <v>946</v>
-      </c>
-      <c r="AX8" s="14" t="s">
-        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J9" t="s">
+        <v>947</v>
+      </c>
+      <c r="K9" t="s">
         <v>948</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>949</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>950</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>951</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>952</v>
       </c>
-      <c r="P9" t="s">
+      <c r="U9" t="s">
         <v>953</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
+        <v>940</v>
+      </c>
+      <c r="X9" t="s">
+        <v>821</v>
+      </c>
+      <c r="Y9" t="s">
         <v>954</v>
       </c>
-      <c r="W9" t="s">
-        <v>941</v>
-      </c>
-      <c r="X9" t="s">
-        <v>822</v>
-      </c>
-      <c r="Y9" t="s">
+      <c r="AH9" t="s">
         <v>955</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AK9" t="s">
         <v>956</v>
       </c>
-      <c r="AK9" t="s">
+      <c r="AM9" t="s">
+        <v>851</v>
+      </c>
+      <c r="AP9" t="s">
         <v>957</v>
       </c>
-      <c r="AM9" t="s">
-        <v>852</v>
-      </c>
-      <c r="AP9" t="s">
+      <c r="AW9" t="s">
         <v>958</v>
       </c>
-      <c r="AW9" t="s">
+      <c r="AX9" t="s">
         <v>959</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="10" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="E10" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
+        <v>853</v>
+      </c>
+      <c r="M10" s="14" t="s">
         <v>963</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>854</v>
-      </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="14" t="s">
         <v>964</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="U10" s="14" t="s">
         <v>965</v>
       </c>
-      <c r="U10" s="14" t="s">
+      <c r="W10" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="X10" s="14" t="s">
         <v>966</v>
       </c>
-      <c r="W10" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="X10" s="14" t="s">
+      <c r="Y10" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="AH10" s="14" t="s">
         <v>967</v>
       </c>
-      <c r="Y10" s="14" t="s">
-        <v>815</v>
-      </c>
-      <c r="AH10" s="14" t="s">
+      <c r="AM10" s="14" t="s">
         <v>968</v>
       </c>
-      <c r="AM10" s="14" t="s">
+      <c r="AP10" s="14" t="s">
         <v>969</v>
       </c>
-      <c r="AP10" s="14" t="s">
+      <c r="AW10" s="14" t="s">
         <v>970</v>
       </c>
-      <c r="AW10" s="14" t="s">
+      <c r="AX10" s="14" t="s">
         <v>971</v>
-      </c>
-      <c r="AX10" s="14" t="s">
-        <v>972</v>
       </c>
     </row>
     <row r="11" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
+        <v>972</v>
+      </c>
+      <c r="J11" t="s">
         <v>973</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>974</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>892</v>
+      </c>
+      <c r="M11" t="s">
         <v>975</v>
       </c>
-      <c r="L11" t="s">
-        <v>893</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>976</v>
       </c>
-      <c r="N11" t="s">
+      <c r="U11" t="s">
         <v>977</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>978</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>979</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>980</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="AH11" t="s">
         <v>981</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AM11" t="s">
         <v>982</v>
       </c>
-      <c r="AM11" t="s">
+      <c r="AP11" t="s">
         <v>983</v>
       </c>
-      <c r="AP11" t="s">
+      <c r="AW11" t="s">
         <v>984</v>
       </c>
-      <c r="AW11" t="s">
+      <c r="AX11" t="s">
         <v>985</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>986</v>
       </c>
     </row>
     <row r="12" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="J12" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="K12" s="14" t="s">
         <v>987</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="L12" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="N12" s="14" t="s">
         <v>988</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="M12" s="14" t="s">
-        <v>916</v>
-      </c>
-      <c r="N12" s="14" t="s">
+      <c r="U12" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="W12" s="14" t="s">
         <v>989</v>
       </c>
-      <c r="U12" s="14" t="s">
-        <v>832</v>
-      </c>
-      <c r="W12" s="14" t="s">
+      <c r="X12" s="14" t="s">
         <v>990</v>
       </c>
-      <c r="X12" s="14" t="s">
+      <c r="Y12" s="14" t="s">
         <v>991</v>
       </c>
-      <c r="Y12" s="14" t="s">
+      <c r="AH12" s="14" t="s">
         <v>992</v>
       </c>
-      <c r="AH12" s="14" t="s">
+      <c r="AM12" s="14" t="s">
         <v>993</v>
       </c>
-      <c r="AM12" s="14" t="s">
+      <c r="AP12" s="14" t="s">
         <v>994</v>
       </c>
-      <c r="AP12" s="14" t="s">
+      <c r="AW12" s="14" t="s">
         <v>995</v>
       </c>
-      <c r="AW12" s="14" t="s">
+      <c r="AX12" s="14" t="s">
         <v>996</v>
-      </c>
-      <c r="AX12" s="14" t="s">
-        <v>997</v>
       </c>
     </row>
     <row r="13" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J13" t="s">
+        <v>997</v>
+      </c>
+      <c r="L13" t="s">
+        <v>935</v>
+      </c>
+      <c r="M13" t="s">
         <v>998</v>
       </c>
-      <c r="L13" t="s">
-        <v>936</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>999</v>
       </c>
-      <c r="N13" t="s">
+      <c r="U13" t="s">
+        <v>944</v>
+      </c>
+      <c r="W13" t="s">
         <v>1000</v>
       </c>
-      <c r="U13" t="s">
-        <v>945</v>
-      </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>1001</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>1002</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="AH13" t="s">
         <v>1003</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AM13" t="s">
         <v>1004</v>
       </c>
-      <c r="AM13" t="s">
+      <c r="AP13" t="s">
         <v>1005</v>
       </c>
-      <c r="AP13" t="s">
+      <c r="AW13" t="s">
         <v>1006</v>
       </c>
-      <c r="AW13" t="s">
+      <c r="AX13" t="s">
         <v>1007</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="14" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L14" s="14" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M14" s="14" t="s">
         <v>1009</v>
       </c>
-      <c r="M14" s="14" t="s">
+      <c r="N14" s="14" t="s">
         <v>1010</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="U14" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="X14" s="14" t="s">
         <v>1011</v>
       </c>
-      <c r="U14" s="14" t="s">
-        <v>958</v>
-      </c>
-      <c r="W14" s="14" t="s">
-        <v>967</v>
-      </c>
-      <c r="X14" s="14" t="s">
+      <c r="Y14" s="14" t="s">
         <v>1012</v>
       </c>
-      <c r="Y14" s="14" t="s">
+      <c r="AH14" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="AH14" s="14" t="s">
+      <c r="AM14" s="14" t="s">
         <v>1014</v>
       </c>
-      <c r="AM14" s="14" t="s">
+      <c r="AP14" s="14" t="s">
         <v>1015</v>
       </c>
-      <c r="AP14" s="14" t="s">
+      <c r="AW14" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="AW14" s="14" t="s">
+      <c r="AX14" s="14" t="s">
         <v>1017</v>
-      </c>
-      <c r="AX14" s="14" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="15" spans="1:54" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M15" t="s">
         <v>1019</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>1020</v>
       </c>
-      <c r="N15" t="s">
+      <c r="W15" t="s">
+        <v>979</v>
+      </c>
+      <c r="X15" t="s">
         <v>1021</v>
       </c>
-      <c r="W15" t="s">
-        <v>980</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>1022</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="AM15" t="s">
         <v>1023</v>
       </c>
-      <c r="AM15" t="s">
+      <c r="AP15" t="s">
         <v>1024</v>
       </c>
-      <c r="AP15" t="s">
+      <c r="AW15" t="s">
         <v>1025</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>1026</v>
       </c>
     </row>
     <row r="16" spans="1:54" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L16" s="14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M16" s="14" t="s">
         <v>1027</v>
       </c>
-      <c r="M16" s="14" t="s">
+      <c r="N16" s="14" t="s">
         <v>1028</v>
       </c>
-      <c r="N16" s="14" t="s">
+      <c r="W16" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="Y16" s="14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AM16" s="14" t="s">
         <v>1029</v>
       </c>
-      <c r="W16" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="Y16" s="14" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AM16" s="14" t="s">
+      <c r="AP16" s="14" t="s">
         <v>1030</v>
       </c>
-      <c r="AP16" s="14" t="s">
+      <c r="AW16" s="14" t="s">
         <v>1031</v>
-      </c>
-      <c r="AW16" s="14" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="17" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L17" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M17" t="s">
         <v>1033</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>1034</v>
       </c>
-      <c r="N17" t="s">
+      <c r="W17" t="s">
         <v>1035</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>1036</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
+        <v>730</v>
+      </c>
+      <c r="AM17" t="s">
         <v>1037</v>
       </c>
-      <c r="Y17" t="s">
-        <v>731</v>
-      </c>
-      <c r="AM17" t="s">
+      <c r="AP17" t="s">
         <v>1038</v>
       </c>
-      <c r="AP17" t="s">
+      <c r="AW17" t="s">
         <v>1039</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="18" spans="12:49" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L18" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="M18" s="14" t="s">
         <v>1041</v>
       </c>
-      <c r="M18" s="14" t="s">
+      <c r="N18" s="14" t="s">
         <v>1042</v>
       </c>
-      <c r="N18" s="14" t="s">
+      <c r="W18" s="14" t="s">
         <v>1043</v>
       </c>
-      <c r="W18" s="14" t="s">
+      <c r="X18" s="14" t="s">
         <v>1044</v>
       </c>
-      <c r="X18" s="14" t="s">
+      <c r="Y18" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="Y18" s="14" t="s">
+      <c r="AM18" s="14" t="s">
         <v>1046</v>
       </c>
-      <c r="AM18" s="14" t="s">
+      <c r="AP18" s="14" t="s">
         <v>1047</v>
       </c>
-      <c r="AP18" s="14" t="s">
+      <c r="AW18" s="14" t="s">
         <v>1048</v>
-      </c>
-      <c r="AW18" s="14" t="s">
-        <v>1049</v>
       </c>
     </row>
     <row r="19" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L19" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M19" t="s">
         <v>1050</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>1051</v>
       </c>
-      <c r="N19" t="s">
+      <c r="W19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="X19" t="s">
+        <v>1002</v>
+      </c>
+      <c r="Y19" t="s">
         <v>1052</v>
       </c>
-      <c r="W19" t="s">
-        <v>1037</v>
-      </c>
-      <c r="X19" t="s">
-        <v>1003</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="AM19" t="s">
         <v>1053</v>
       </c>
-      <c r="AM19" t="s">
+      <c r="AP19" t="s">
         <v>1054</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="20" spans="12:49" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L20" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="M20" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="M20" s="14" t="s">
+      <c r="N20" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="N20" s="14" t="s">
+      <c r="W20" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="X20" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Y20" s="14" t="s">
         <v>1058</v>
       </c>
-      <c r="W20" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>1013</v>
-      </c>
-      <c r="Y20" s="14" t="s">
+      <c r="AM20" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="AM20" s="14" t="s">
+      <c r="AP20" s="14" t="s">
         <v>1060</v>
-      </c>
-      <c r="AP20" s="14" t="s">
-        <v>1061</v>
       </c>
     </row>
     <row r="21" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L21" t="s">
+        <v>1061</v>
+      </c>
+      <c r="M21" t="s">
         <v>1062</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>1063</v>
       </c>
-      <c r="N21" t="s">
+      <c r="W21" t="s">
         <v>1064</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
+        <v>980</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AM21" t="s">
         <v>1065</v>
       </c>
-      <c r="X21" t="s">
-        <v>981</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>1037</v>
-      </c>
-      <c r="AM21" t="s">
+      <c r="AP21" t="s">
         <v>1066</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>1067</v>
       </c>
     </row>
     <row r="22" spans="12:49" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L22" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N22" s="14" t="s">
         <v>1068</v>
       </c>
-      <c r="N22" s="14" t="s">
+      <c r="W22" s="14" t="s">
         <v>1069</v>
       </c>
-      <c r="W22" s="14" t="s">
+      <c r="X22" s="14" t="s">
+        <v>991</v>
+      </c>
+      <c r="Y22" s="14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AM22" s="14" t="s">
         <v>1070</v>
-      </c>
-      <c r="X22" s="14" t="s">
-        <v>992</v>
-      </c>
-      <c r="Y22" s="14" t="s">
-        <v>1012</v>
-      </c>
-      <c r="AM22" s="14" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="23" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L23" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N23" t="s">
         <v>1072</v>
       </c>
-      <c r="N23" t="s">
+      <c r="W23" t="s">
         <v>1073</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
+        <v>814</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>966</v>
+      </c>
+      <c r="AM23" t="s">
         <v>1074</v>
-      </c>
-      <c r="X23" t="s">
-        <v>815</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>967</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="24" spans="12:49" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L24" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N24" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="N24" s="14" t="s">
+      <c r="W24" s="14" t="s">
         <v>1077</v>
       </c>
-      <c r="W24" s="14" t="s">
-        <v>1078</v>
-      </c>
       <c r="X24" s="14" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="Y24" s="14" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AM24" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="N25" t="s">
         <v>1079</v>
       </c>
-      <c r="N25" t="s">
+      <c r="W25" t="s">
         <v>1080</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
+        <v>862</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>940</v>
+      </c>
+      <c r="AM25" t="s">
         <v>1081</v>
-      </c>
-      <c r="X25" t="s">
-        <v>863</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>941</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="26" spans="12:49" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L26" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="N26" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="W26" s="14" t="s">
         <v>1083</v>
       </c>
-      <c r="W26" s="14" t="s">
+      <c r="X26" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="Y26" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="X26" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="Y26" s="14" t="s">
-        <v>1085</v>
-      </c>
       <c r="AM26" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="27" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L27" t="s">
+        <v>1085</v>
+      </c>
+      <c r="N27" t="s">
         <v>1086</v>
       </c>
-      <c r="N27" t="s">
+      <c r="W27" t="s">
         <v>1087</v>
       </c>
-      <c r="W27" t="s">
-        <v>1088</v>
-      </c>
       <c r="X27" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="Y27" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="AM27" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="12:49" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N28" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="W28" s="14" t="s">
         <v>1089</v>
       </c>
-      <c r="W28" s="14" t="s">
+      <c r="X28" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Y28" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="AM28" s="14" t="s">
         <v>1090</v>
-      </c>
-      <c r="X28" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="Y28" s="14" t="s">
-        <v>991</v>
-      </c>
-      <c r="AM28" s="14" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="29" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N29" t="s">
+        <v>1091</v>
+      </c>
+      <c r="W29" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Y29" t="s">
         <v>1092</v>
       </c>
-      <c r="W29" t="s">
-        <v>1045</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="AM29" t="s">
         <v>1093</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>1094</v>
       </c>
     </row>
     <row r="30" spans="12:49" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="N30" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="W30" s="14" t="s">
         <v>1095</v>
       </c>
-      <c r="W30" s="14" t="s">
+      <c r="Y30" s="14" t="s">
         <v>1096</v>
       </c>
-      <c r="Y30" s="14" t="s">
+      <c r="AM30" s="14" t="s">
         <v>1097</v>
-      </c>
-      <c r="AM30" s="14" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row r="31" spans="12:49" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Y31" t="s">
         <v>1099</v>
       </c>
-      <c r="Y31" t="s">
-        <v>1100</v>
-      </c>
       <c r="AM31" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="32" spans="12:49" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W32" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Y32" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AM32" s="14" t="s">
         <v>1101</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AM32" s="14" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="33" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W33" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AM33" t="s">
         <v>1103</v>
-      </c>
-      <c r="AM33" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row r="34" spans="23:39" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W34" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AM34" s="14" t="s">
         <v>1105</v>
-      </c>
-      <c r="AM34" s="14" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row r="35" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W35" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AM35" t="s">
         <v>1107</v>
-      </c>
-      <c r="AM35" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row r="36" spans="23:39" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W36" s="14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AM36" s="14" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="37" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W37" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AM37" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="38" spans="23:39" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W38" s="14" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AM38" s="14" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="39" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W39" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AM39" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="40" spans="23:39" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W40" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AM40" s="14" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="41" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W41" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="42" spans="23:39" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W42" s="14" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="43" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W43" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="44" spans="23:39" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W44" s="14" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="45" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W45" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="46" spans="23:39" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W46" s="14" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="47" spans="23:39" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W47" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="48" spans="23:39" s="14" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="W48" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -15519,49 +15470,49 @@
   <sheetData>
     <row r="1" spans="1:29" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>22</v>
@@ -15573,265 +15524,265 @@
         <v>41</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
         <v>80</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>81</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>82</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>594</v>
+      </c>
+      <c r="Z1" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" t="s">
-        <v>595</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AB1" t="s">
         <v>84</v>
       </c>
-      <c r="AA1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>85</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>95</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="S2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
         <v>101</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="Z2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" t="s">
         <v>118</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>119</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S3" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="T3" t="s">
         <v>125</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="V3" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="2" t="s">
+      <c r="X3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Y3" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="Z3" s="2" t="s">
+      <c r="AA3" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AB3" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AC3" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" t="s">
         <v>142</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>143</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>148</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>38</v>
@@ -15840,527 +15791,527 @@
         <v>42</v>
       </c>
       <c r="S4" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="T4" t="s">
         <v>149</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="V4" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="W4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="X4" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AB4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="I5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" t="s">
         <v>166</v>
       </c>
-      <c r="I5" t="s">
-        <v>143</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="K5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T5" t="s">
         <v>172</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="W5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="W5" s="2" t="s">
+      <c r="X5" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AB5" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="AC5" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="I6" t="s">
         <v>189</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>190</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="M6" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="N6" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" t="s">
         <v>196</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="W6" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="X6" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AB6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="I7" t="s">
         <v>213</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>214</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="N7" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="S7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="T7" t="s">
         <v>219</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="X7" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" t="s">
         <v>234</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>235</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="V8" s="2" t="s">
+      <c r="W8" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="AA8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AB8" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AC8" s="4" t="s">
         <v>246</v>
-      </c>
-      <c r="AC8" s="4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I9" t="s">
         <v>252</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>253</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>255</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="4"/>
       <c r="N9" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="U9" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="W9" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="X9" s="4" t="s">
         <v>259</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB9" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AC9" s="4" t="s">
         <v>262</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>264</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>265</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="I10" t="s">
         <v>268</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>269</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="L10" s="2"/>
       <c r="N10" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="S10" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="V10" s="2" t="s">
+      <c r="W10" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="X10" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB10" s="4" t="s">
         <v>277</v>
-      </c>
-      <c r="AB10" s="4" t="s">
-        <v>278</v>
       </c>
       <c r="AC10" s="4"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="I11" t="s">
         <v>283</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>284</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="N11" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>28</v>
@@ -16368,55 +16319,55 @@
       <c r="S11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="W11" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="X11" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB11" s="4" t="s">
         <v>290</v>
-      </c>
-      <c r="AB11" s="4" t="s">
-        <v>291</v>
       </c>
       <c r="AC11" s="4"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="I12" t="s">
         <v>296</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>253</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="J12" t="s">
-        <v>254</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="N12" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>32</v>
@@ -16424,49 +16375,49 @@
       <c r="S12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB12" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="AB12" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="AC12" s="4"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" t="s">
         <v>307</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="J13" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>29</v>
@@ -16474,60 +16425,60 @@
       <c r="S13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB13" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="AB13" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="AC13" s="4"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="I14" t="s">
         <v>318</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>319</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="K14" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="N14" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="S14" s="2"/>
       <c r="V14" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
@@ -16537,42 +16488,42 @@
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="I15" t="s">
         <v>328</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="K15" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="N15" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="S15" s="2"/>
       <c r="V15" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
@@ -16582,41 +16533,41 @@
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" t="s">
         <v>338</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="K16" s="2" t="s">
-        <v>341</v>
-      </c>
       <c r="N16" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
@@ -16626,39 +16577,39 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="I17" t="s">
         <v>348</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
@@ -16669,36 +16620,36 @@
     <row r="18" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" t="s">
         <v>356</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
@@ -16709,36 +16660,36 @@
     <row r="19" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="I19" t="s">
         <v>364</v>
       </c>
-      <c r="I19" t="s">
-        <v>365</v>
-      </c>
       <c r="J19" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>34</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
@@ -16748,33 +16699,33 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
@@ -16784,33 +16735,33 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="K21" s="2"/>
       <c r="N21" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
@@ -16820,30 +16771,30 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="N22" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
@@ -16853,30 +16804,30 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>392</v>
-      </c>
       <c r="N23" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
@@ -16886,28 +16837,28 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B24" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="J24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
@@ -16917,28 +16868,28 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="H25" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="J25" s="2"/>
       <c r="N25" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
@@ -16948,28 +16899,28 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="J26" s="2"/>
       <c r="N26" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
@@ -16979,814 +16930,814 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B27" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="J27" s="2"/>
       <c r="N27" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="J28" s="2"/>
       <c r="N28" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B29" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="J29" s="2"/>
       <c r="N29" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="J30" s="2"/>
       <c r="N30" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>434</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="J31" s="2"/>
       <c r="N31" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="J32" s="2"/>
       <c r="N32" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="J33" s="2"/>
       <c r="N33" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="J34" s="2"/>
       <c r="N34" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="J35" s="2"/>
       <c r="N35" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="J36" s="2"/>
       <c r="N36" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H37" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="N37" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="N38" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="H39" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="N39" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H40" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="N40" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="N41" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="N42" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>470</v>
-      </c>
       <c r="N43" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="H44" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="N44" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>474</v>
-      </c>
       <c r="N45" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H46" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="N46" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="N47" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>483</v>
-      </c>
       <c r="N48" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>486</v>
-      </c>
       <c r="N49" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="H50" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="N50" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="H51" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="N51" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H67" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H68" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H69" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H70" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B71" s="3"/>
       <c r="H71" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H72" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H73" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H74" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H75" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H76" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H77" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H78" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H79" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="H80" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H81" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H82" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H83" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H84" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H85" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H86" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H87" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H88" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H89" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H90" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H91" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H92" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H93" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H94" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H95" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H96" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H97" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H98" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H99" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H100" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H101" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H102" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H103" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H104" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H105" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H106" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H107" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H108" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="109" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H109" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="110" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H110" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H111" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H112" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="113" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H113" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="114" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H114" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="115" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H115" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="116" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H116" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="117" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H117" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="118" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H118" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="119" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H119" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="120" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H120" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="121" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H121" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="122" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H122" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H123" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H124" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="125" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H125" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="126" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H126" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127" spans="8:8" x14ac:dyDescent="0.35">
       <c r="H127" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.35">

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\orahub_develop\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC3F78AC-11A4-4F90-B5E5-5EA7E4E9AC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A0FF6A-B0A8-4ABC-A3EF-7A8B7F1A7585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="1269">
   <si>
     <t>Region</t>
   </si>
@@ -4330,9 +4330,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">CD3 Automation Toolkit Release - v11
+      <t xml:space="preserve">CD3 Automation Toolkit Release - v12
 </t>
     </r>
+  </si>
+  <si>
+    <t>deletelocalpeeringgateway.end</t>
   </si>
 </sst>
 </file>
@@ -6118,8 +6121,8 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="network25" displayName="network25" ref="P1:P49" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="P1:P49" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="network25" displayName="network25" ref="P1:P50" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="P1:P50" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0F00-000001000000}" name="virtualnetwork" dataDxfId="29"/>
   </tableColumns>
@@ -6661,7 +6664,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6943,8 +6946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8701,7 +8704,7 @@
         <v>22</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>1159</v>
+        <v>1268</v>
       </c>
       <c r="J49" s="8" t="b">
         <v>1</v>
@@ -9757,8 +9760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15442,7 +15445,7 @@
   <dimension ref="A1:AC129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17323,6 +17326,9 @@
       </c>
       <c r="N50" s="2" t="s">
         <v>589</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.35">

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74DBCB7-7EFC-F24F-932B-8BBEE415B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F000F-1F4B-7B4E-BB4D-C6182A5C048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4333,7 +4333,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>CD3-OCI Automation Toolkit</t>
+      <t>CD3 Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -4354,7 +4354,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.1.0</t>
+      <t>Release - v2024.2.0</t>
     </r>
   </si>
 </sst>
@@ -4708,6 +4708,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4723,9 +4726,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -6659,7 +6659,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>1268</v>
       </c>
     </row>
@@ -6694,15 +6694,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1175</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -6954,20 +6954,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1176</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="37"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -9765,22 +9765,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>1177</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40"/>
     </row>
     <row r="2" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -10230,26 +10230,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="197" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>1262</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
     </row>
     <row r="2" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-master/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F000F-1F4B-7B4E-BB4D-C6182A5C048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC68A8-0A45-4749-9552-A8E5ABFEC231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -4354,7 +4354,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.2.0</t>
+      <t>Release - v2024.3.0</t>
     </r>
   </si>
 </sst>

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-master/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC68A8-0A45-4749-9552-A8E5ABFEC231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BBC7D0-5A31-7F4E-8342-8765401678B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -6678,8 +6678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6931,8 +6931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9746,7 +9746,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{088F000F-1F4B-7B4E-BB4D-C6182A5C048F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC641F3-D840-AE47-A516-FB5310AD2216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -4354,7 +4354,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.2.0</t>
+      <t>Release - v2024.3.0</t>
     </r>
   </si>
 </sst>
@@ -6678,8 +6678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6931,8 +6931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9746,7 +9746,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13141,6 +13141,18 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI Region" xr:uid="{547D9943-C785-B24F-8633-2FB0C1D4FDB0}">
+          <x14:formula1>
+            <xm:f>AlarmsTable!$D$2:$D$43</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC641F3-D840-AE47-A516-FB5310AD2216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB66D2-0022-2942-822F-88D89C0065AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4354,7 +4354,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.3.0</t>
+      <t>Release - v2024.4.0</t>
     </r>
   </si>
 </sst>

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB66D2-0022-2942-822F-88D89C0065AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF03FD-3EEF-2345-9220-EDD816DBA032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="760" windowWidth="15840" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2278" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1279">
   <si>
     <t>Region</t>
   </si>
@@ -4320,10 +4320,36 @@
     <t>deletelocalpeeringgateway.end</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
+    <t>##Commercial##</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Jovanovac</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>##US Gov##</t>
+  </si>
+  <si>
+    <t>##US Defence##</t>
+  </si>
+  <si>
+    <t>##UK Gov##</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -4354,7 +4380,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.4.0</t>
+      <t>Release - v2024.4.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ Updated Region column drop down for all sheets </t>
     </r>
   </si>
 </sst>
@@ -4362,7 +4399,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4423,8 +4460,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4464,6 +4508,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4629,11 +4684,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4726,8 +4782,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -6660,7 +6726,7 @@
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>1268</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -6684,7 +6750,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
@@ -6915,9 +6981,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI Region" xr:uid="{2D820C29-1002-204D-B00D-804EDEB71B8E}">
+        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{2D820C29-1002-204D-B00D-804EDEB71B8E}">
           <x14:formula1>
-            <xm:f>AlarmsTable!$D$2:$D$43</xm:f>
+            <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -9729,9 +9795,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI Region" xr:uid="{CAEBC965-9C10-D548-BA4C-C9886C31C633}">
+        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{925324F3-2567-D64A-AA03-BB8837367917}">
           <x14:formula1>
-            <xm:f>AlarmsTable!$D$2:$D$43</xm:f>
+            <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -10180,12 +10246,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI Region" xr:uid="{2F6F6B03-F9DD-654D-A220-710C45591F5F}">
-          <x14:formula1>
-            <xm:f>AlarmsTable!$D$2:$D$43</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{3A7701B9-9CDA-494A-8E71-6A5D815A2B37}">
           <x14:formula1>
             <xm:f>AlarmsTable!$A$2:$A$5</xm:f>
@@ -10203,6 +10263,12 @@
             <xm:f>AlarmsTable!$C$2:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>L3:L1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{037041F5-9456-1C44-AC21-3DB92DF323E1}">
+          <x14:formula1>
+            <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13144,9 +13210,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI Region" xr:uid="{547D9943-C785-B24F-8633-2FB0C1D4FDB0}">
+        <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{03D11048-F290-6B43-BA8B-72D4CBD50156}">
           <x14:formula1>
-            <xm:f>AlarmsTable!$D$2:$D$43</xm:f>
+            <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -13160,8 +13226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13196,8 +13262,8 @@
       <c r="C2" s="31" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>1233</v>
+      <c r="D2" s="42" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13211,7 +13277,7 @@
         <v>655</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13224,8 +13290,8 @@
       <c r="C4" s="31" t="s">
         <v>658</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>1205</v>
+      <c r="D4" t="s">
+        <v>1234</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13235,48 +13301,48 @@
       <c r="B5" s="7" t="s">
         <v>660</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>1235</v>
+      <c r="D5" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>1206</v>
+      <c r="D6" t="s">
+        <v>1269</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>1207</v>
+      <c r="D7" t="s">
+        <v>1235</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>1236</v>
+      <c r="D8" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>1237</v>
+      <c r="D9" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>1228</v>
+      <c r="D10" t="s">
+        <v>1236</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -13284,8 +13350,8 @@
         <v>666</v>
       </c>
       <c r="C11" s="32"/>
-      <c r="D11" s="8" t="s">
-        <v>1232</v>
+      <c r="D11" t="s">
+        <v>1237</v>
       </c>
       <c r="E11" s="33"/>
     </row>
@@ -13293,239 +13359,239 @@
       <c r="B12" s="7" t="s">
         <v>667</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>1229</v>
+      <c r="D12" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>1231</v>
+      <c r="D13" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>1230</v>
+      <c r="D14" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>1238</v>
+      <c r="D15" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
         <v>671</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>1208</v>
+      <c r="D16" t="s">
+        <v>1270</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>1209</v>
+      <c r="D17" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>1210</v>
+      <c r="D18" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
         <v>674</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>1239</v>
+      <c r="D19" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="7" t="s">
         <v>675</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>1211</v>
+      <c r="D20" t="s">
+        <v>1214</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>1240</v>
+      <c r="D21" t="s">
+        <v>1215</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>1212</v>
+      <c r="D22" t="s">
+        <v>1216</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>1213</v>
+      <c r="D23" t="s">
+        <v>1271</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
         <v>679</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>1214</v>
+      <c r="D24" t="s">
+        <v>1241</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>1215</v>
+      <c r="D25" t="s">
+        <v>1272</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>1216</v>
+      <c r="D26" t="s">
+        <v>1217</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>1241</v>
+      <c r="D27" t="s">
+        <v>1242</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>1217</v>
+      <c r="D28" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>1242</v>
+      <c r="D29" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>7</v>
+      <c r="D30" t="s">
+        <v>1273</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>1218</v>
+      <c r="D31" t="s">
+        <v>1219</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>1219</v>
+      <c r="D32" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
         <v>654</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>1220</v>
+      <c r="D33" t="s">
+        <v>1243</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>1243</v>
+      <c r="D34" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>1221</v>
+      <c r="D35" t="s">
+        <v>1222</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>1222</v>
+      <c r="D36" t="s">
+        <v>1244</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>1244</v>
+      <c r="D37" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>1223</v>
+      <c r="D38" t="s">
+        <v>1224</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>1224</v>
+      <c r="D39" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="D40" s="8" t="s">
-        <v>1225</v>
+      <c r="D40" s="43" t="s">
+        <v>1274</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -13533,71 +13599,104 @@
       <c r="B42" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>1227</v>
+      <c r="D42" t="s">
+        <v>1218</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
         <v>697</v>
       </c>
-      <c r="D43" s="8" t="s">
-        <v>1172</v>
+      <c r="D43" t="s">
+        <v>1227</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>698</v>
       </c>
+      <c r="D44" s="44" t="s">
+        <v>1275</v>
+      </c>
     </row>
     <row r="45" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
         <v>699</v>
       </c>
+      <c r="D45" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="46" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
         <v>700</v>
       </c>
+      <c r="D46" t="s">
+        <v>1240</v>
+      </c>
     </row>
     <row r="47" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
         <v>701</v>
       </c>
+      <c r="D47" s="5" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="48" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D51" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>708</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>1172</v>
       </c>
     </row>
   </sheetData>

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lasyavadavalli/PycharmProjects/CD3Lasya/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF03FD-3EEF-2345-9220-EDD816DBA032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4235F41-2783-DB4F-B199-5037C4DDCE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="760" windowWidth="15840" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="760" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -3902,9 +3902,6 @@
     <t>objectStorage</t>
   </si>
   <si>
-    <t>log-bucket</t>
-  </si>
-  <si>
     <t>SCH-02</t>
   </si>
   <si>
@@ -4058,33 +4055,9 @@
     <t>Stockholm</t>
   </si>
   <si>
-    <t>Security&amp;log-Stream</t>
-  </si>
-  <si>
-    <t>Security&amp;log-notify</t>
-  </si>
-  <si>
-    <t>Security&amp;source-stream</t>
-  </si>
-  <si>
-    <t>Network&amp;target-log</t>
-  </si>
-  <si>
-    <t>Network&amp;prod_vcn</t>
-  </si>
-  <si>
-    <t>Network&amp;Audit_In_Subcompartment</t>
-  </si>
-  <si>
-    <t>AppDev&amp;Audit</t>
-  </si>
-  <si>
     <t>`</t>
   </si>
   <si>
-    <t>Network&amp;nonprod_vcn&amp;nonprod-web</t>
-  </si>
-  <si>
     <t>Source Monitoring Details</t>
   </si>
   <si>
@@ -4103,10 +4076,82 @@
     <t>logging to monitoring</t>
   </si>
   <si>
-    <t>Network&amp;network-vcn-logs&amp;all</t>
-  </si>
-  <si>
-    <t>Network&amp;[CpuUtilization,computeagent]</t>
+    <t>SCH-06</t>
+  </si>
+  <si>
+    <t>stream to function</t>
+  </si>
+  <si>
+    <t>SCH-07</t>
+  </si>
+  <si>
+    <t>deletelocalpeeringgateway.end</t>
+  </si>
+  <si>
+    <t>##Commercial##</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Jovanovac</t>
+  </si>
+  <si>
+    <t>Monterrey</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Riyadh</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>##US Gov##</t>
+  </si>
+  <si>
+    <t>##US Defence##</t>
+  </si>
+  <si>
+    <t>##UK Gov##</t>
+  </si>
+  <si>
+    <t>AppDev@Audit</t>
+  </si>
+  <si>
+    <t>Network@Audit_In_Subcompartment</t>
+  </si>
+  <si>
+    <t>Security@source-stream</t>
+  </si>
+  <si>
+    <t>Network@target-log</t>
+  </si>
+  <si>
+    <t>Security@log-Stream</t>
+  </si>
+  <si>
+    <t>Security@log-notify</t>
+  </si>
+  <si>
+    <t>Network@fwl-vcn-flow-log-group@fwl-ha-flow-log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network@prod-vcn_flow-log-group </t>
+  </si>
+  <si>
+    <t>Network@network-vcn-logs</t>
+  </si>
+  <si>
+    <t>Ulag@object-logging@object-logging</t>
+  </si>
+  <si>
+    <t>Ulag@[CpuUtilization,computeagent]</t>
+  </si>
+  <si>
+    <t>test_execution_tday</t>
   </si>
   <si>
     <r>
@@ -4122,7 +4167,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Required when source is 'streaming' and target is 'loggingAnalytics' (Ex: OCI Object Storage Access Logs)
-Enter Source and Target details in the format as:  &lt;compartment_name&gt;&amp;&lt;oci_object_name&gt;. Please see sample data below after &lt;END&gt; tag. 
+Enter Source and Target details in the format as:  &lt;compartment_name&gt;@&lt;oci_object_name&gt;. Please see sample data below after &lt;END&gt; tag. 
 </t>
     </r>
     <r>
@@ -4210,7 +4255,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Format is  &lt;compartment_name&gt;&amp;[namespace_name]. Ex: CD3Comp&amp;[oci_blockstorage,oci_computeagent]
+      <t xml:space="preserve">Format is  &lt;compartment_name&gt;@[namespace_name]. Ex: CD3Comp@[oci_blockstorage,oci_computeagent]
 </t>
     </r>
     <r>
@@ -4232,7 +4277,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Format is &lt;compartment_name&gt;&amp;[metric_name, namespace_name]. For example, check Row 9.
+      <t xml:space="preserve">Format is &lt;compartment_name&gt;@[metric_name, namespace_name]. For example, check Row 9.
 </t>
     </r>
     <r>
@@ -4305,51 +4350,6 @@
     </r>
   </si>
   <si>
-    <t>SCH-06</t>
-  </si>
-  <si>
-    <t>stream to function</t>
-  </si>
-  <si>
-    <t>Security@subnet-events@test-func</t>
-  </si>
-  <si>
-    <t>SCH-07</t>
-  </si>
-  <si>
-    <t>deletelocalpeeringgateway.end</t>
-  </si>
-  <si>
-    <t>##Commercial##</t>
-  </si>
-  <si>
-    <t>Bogota</t>
-  </si>
-  <si>
-    <t>Jovanovac</t>
-  </si>
-  <si>
-    <t>Monterrey</t>
-  </si>
-  <si>
-    <t>Newport</t>
-  </si>
-  <si>
-    <t>Riyadh</t>
-  </si>
-  <si>
-    <t>Valparaiso</t>
-  </si>
-  <si>
-    <t>##US Gov##</t>
-  </si>
-  <si>
-    <t>##US Defence##</t>
-  </si>
-  <si>
-    <t>##UK Gov##</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -4380,7 +4380,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.4.1</t>
+      <t>Release - v2024.4.3</t>
     </r>
     <r>
       <rPr>
@@ -4391,7 +4391,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
- Updated Region column drop down for all sheets </t>
+ Modified description in KMS sheet, Modified delimiters in ServiceConectors sheet</t>
     </r>
   </si>
 </sst>
@@ -4767,6 +4767,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4782,15 +4791,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
   </sheetData>
@@ -6760,15 +6760,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="120" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>1175</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -7020,20 +7020,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>1176</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="40"/>
     </row>
     <row r="2" spans="1:12" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -8755,7 +8755,7 @@
         <v>22</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="J49" s="7" t="b">
         <v>1</v>
@@ -9831,22 +9831,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>1177</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -10286,7 +10286,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="46.83203125" customWidth="1"/>
     <col min="8" max="9" width="19.33203125" customWidth="1"/>
     <col min="12" max="12" width="21.33203125" customWidth="1"/>
     <col min="15" max="15" width="14" customWidth="1"/>
@@ -10296,26 +10297,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="197" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>1262</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
+      <c r="A1" s="38" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
     </row>
     <row r="2" spans="1:18" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
@@ -10343,7 +10344,7 @@
         <v>1182</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>1254</v>
+        <v>1245</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>1183</v>
@@ -10364,36 +10365,36 @@
         <v>1188</v>
       </c>
       <c r="P2" s="26" t="s">
-        <v>1255</v>
+        <v>1246</v>
       </c>
       <c r="Q2" s="26" t="s">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="21" t="s">
         <v>1172</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="7"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:18" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="21" t="s">
@@ -10406,23 +10407,23 @@
         <v>1189</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="E4" s="21" t="s">
         <v>1191</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>1251</v>
+        <v>1265</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21" t="s">
-        <v>1245</v>
+        <v>1269</v>
       </c>
       <c r="M4" s="21"/>
       <c r="N4" s="29"/>
@@ -10439,26 +10440,26 @@
         <v>573</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>1194</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>1195</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>1191</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>1250</v>
+        <v>1266</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21" t="s">
-        <v>1245</v>
+        <v>1269</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="29"/>
@@ -10475,7 +10476,7 @@
         <v>573</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>1190</v>
@@ -10487,7 +10488,7 @@
         <v>1192</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>1253</v>
+        <v>1271</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -10495,7 +10496,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21" t="s">
-        <v>1193</v>
+        <v>1276</v>
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
@@ -10511,19 +10512,19 @@
         <v>573</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>1191</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1249</v>
+        <v>1272</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -10533,7 +10534,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="29"/>
       <c r="O7" s="21" t="s">
-        <v>1246</v>
+        <v>1270</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -10547,27 +10548,27 @@
         <v>573</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>1258</v>
+        <v>1249</v>
       </c>
       <c r="D8" s="21" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>1201</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>1196</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>1202</v>
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>1247</v>
+        <v>1267</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>1248</v>
+        <v>1268</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -10585,19 +10586,19 @@
         <v>573</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>1263</v>
+        <v>1251</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>1259</v>
+        <v>1250</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>1191</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>1260</v>
+        <v>1273</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -10608,7 +10609,7 @@
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21" t="s">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -10621,20 +10622,20 @@
         <v>573</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>1264</v>
+        <v>1252</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>75</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>1247</v>
+        <v>1267</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -10645,7 +10646,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21" t="s">
-        <v>1265</v>
+        <v>1274</v>
       </c>
       <c r="R10" s="21"/>
     </row>
@@ -13214,7 +13215,7 @@
           <x14:formula1>
             <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A1048576</xm:sqref>
+          <xm:sqref>A4:A1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -13249,7 +13250,7 @@
         <v>648</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13262,8 +13263,8 @@
       <c r="C2" s="31" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="42" t="s">
-        <v>1268</v>
+      <c r="D2" s="35" t="s">
+        <v>1255</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13277,7 +13278,7 @@
         <v>655</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13291,7 +13292,7 @@
         <v>658</v>
       </c>
       <c r="D4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13302,7 +13303,7 @@
         <v>660</v>
       </c>
       <c r="D5" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13310,7 +13311,7 @@
         <v>661</v>
       </c>
       <c r="D6" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13318,7 +13319,7 @@
         <v>662</v>
       </c>
       <c r="D7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13326,7 +13327,7 @@
         <v>663</v>
       </c>
       <c r="D8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13334,7 +13335,7 @@
         <v>664</v>
       </c>
       <c r="D9" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13342,7 +13343,7 @@
         <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -13351,7 +13352,7 @@
       </c>
       <c r="C11" s="32"/>
       <c r="D11" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="E11" s="33"/>
     </row>
@@ -13360,7 +13361,7 @@
         <v>667</v>
       </c>
       <c r="D12" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13368,7 +13369,7 @@
         <v>668</v>
       </c>
       <c r="D13" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13376,7 +13377,7 @@
         <v>669</v>
       </c>
       <c r="D14" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13384,7 +13385,7 @@
         <v>670</v>
       </c>
       <c r="D15" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13392,7 +13393,7 @@
         <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>1270</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13400,7 +13401,7 @@
         <v>672</v>
       </c>
       <c r="D17" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13408,7 +13409,7 @@
         <v>673</v>
       </c>
       <c r="D18" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13416,7 +13417,7 @@
         <v>674</v>
       </c>
       <c r="D19" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13424,7 +13425,7 @@
         <v>675</v>
       </c>
       <c r="D20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13432,7 +13433,7 @@
         <v>676</v>
       </c>
       <c r="D21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13440,7 +13441,7 @@
         <v>677</v>
       </c>
       <c r="D22" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13448,7 +13449,7 @@
         <v>678</v>
       </c>
       <c r="D23" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13456,7 +13457,7 @@
         <v>679</v>
       </c>
       <c r="D24" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13464,7 +13465,7 @@
         <v>680</v>
       </c>
       <c r="D25" t="s">
-        <v>1272</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13472,7 +13473,7 @@
         <v>681</v>
       </c>
       <c r="D26" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13480,7 +13481,7 @@
         <v>682</v>
       </c>
       <c r="D27" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13496,7 +13497,7 @@
         <v>684</v>
       </c>
       <c r="D29" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13504,7 +13505,7 @@
         <v>685</v>
       </c>
       <c r="D30" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13512,7 +13513,7 @@
         <v>686</v>
       </c>
       <c r="D31" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13520,7 +13521,7 @@
         <v>687</v>
       </c>
       <c r="D32" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13528,7 +13529,7 @@
         <v>654</v>
       </c>
       <c r="D33" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13536,7 +13537,7 @@
         <v>688</v>
       </c>
       <c r="D34" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13544,7 +13545,7 @@
         <v>689</v>
       </c>
       <c r="D35" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13552,7 +13553,7 @@
         <v>690</v>
       </c>
       <c r="D36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13560,7 +13561,7 @@
         <v>691</v>
       </c>
       <c r="D37" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13568,7 +13569,7 @@
         <v>692</v>
       </c>
       <c r="D38" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13576,15 +13577,15 @@
         <v>693</v>
       </c>
       <c r="D39" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="D40" s="43" t="s">
-        <v>1274</v>
+      <c r="D40" s="36" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13592,7 +13593,7 @@
         <v>695</v>
       </c>
       <c r="D41" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13600,7 +13601,7 @@
         <v>696</v>
       </c>
       <c r="D42" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13608,15 +13609,15 @@
         <v>697</v>
       </c>
       <c r="D43" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="D44" s="44" t="s">
-        <v>1275</v>
+      <c r="D44" s="37" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13624,7 +13625,7 @@
         <v>699</v>
       </c>
       <c r="D45" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13632,7 +13633,7 @@
         <v>700</v>
       </c>
       <c r="D46" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13640,7 +13641,7 @@
         <v>701</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>1276</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13648,7 +13649,7 @@
         <v>702</v>
       </c>
       <c r="D48" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13656,7 +13657,7 @@
         <v>703</v>
       </c>
       <c r="D49" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13664,7 +13665,7 @@
         <v>704</v>
       </c>
       <c r="D50" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13672,7 +13673,7 @@
         <v>705</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13680,7 +13681,7 @@
         <v>706</v>
       </c>
       <c r="D52" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13688,14 +13689,14 @@
         <v>707</v>
       </c>
       <c r="D53" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="36" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -15540,8 +15541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -17424,7 +17425,7 @@
         <v>589</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4235F41-2783-DB4F-B199-5037C4DDCE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD136FD5-49B4-3D48-8C63-4712A74A4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="760" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2289" uniqueCount="1279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1280">
   <si>
     <t>Region</t>
   </si>
@@ -3984,9 +3984,6 @@
   </si>
   <si>
     <t>Seoul</t>
-  </si>
-  <si>
-    <t>Singapore</t>
   </si>
   <si>
     <t>Sydney</t>
@@ -4393,6 +4390,12 @@
       <t xml:space="preserve">
  Modified description in KMS sheet, Modified delimiters in ServiceConectors sheet</t>
     </r>
+  </si>
+  <si>
+    <t>Singapore-1</t>
+  </si>
+  <si>
+    <t>Singapore-2</t>
   </si>
 </sst>
 </file>
@@ -6726,12 +6729,12 @@
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
   </sheetData>
@@ -6983,7 +6986,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{2D820C29-1002-204D-B00D-804EDEB71B8E}">
           <x14:formula1>
-            <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
+            <xm:f>AlarmsTable!$D$2:$D$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -8755,7 +8758,7 @@
         <v>22</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="J49" s="7" t="b">
         <v>1</v>
@@ -9797,7 +9800,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{925324F3-2567-D64A-AA03-BB8837367917}">
           <x14:formula1>
-            <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
+            <xm:f>AlarmsTable!$D$2:$D$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -10254,7 +10257,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{A263F0B0-6C65-8440-8936-6179AF483A11}">
           <x14:formula1>
-            <xm:f>AlarmsTable!$B$2:$B$54</xm:f>
+            <xm:f>AlarmsTable!$B$2:$B$55</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
@@ -10266,7 +10269,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{037041F5-9456-1C44-AC21-3DB92DF323E1}">
           <x14:formula1>
-            <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
+            <xm:f>AlarmsTable!$D$2:$D$55</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -10298,7 +10301,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="197" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -10344,7 +10347,7 @@
         <v>1182</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>1183</v>
@@ -10365,10 +10368,10 @@
         <v>1188</v>
       </c>
       <c r="P2" s="26" t="s">
+        <v>1245</v>
+      </c>
+      <c r="Q2" s="26" t="s">
         <v>1246</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>1247</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>6</v>
@@ -10416,14 +10419,14 @@
         <v>1195</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="H4" s="21"/>
       <c r="I4" s="21"/>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M4" s="21"/>
       <c r="N4" s="29"/>
@@ -10452,14 +10455,14 @@
         <v>1195</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" s="21" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="M5" s="21"/>
       <c r="N5" s="29"/>
@@ -10488,7 +10491,7 @@
         <v>1192</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -10496,7 +10499,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
       <c r="M6" s="21" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="N6" s="21"/>
       <c r="O6" s="21"/>
@@ -10524,7 +10527,7 @@
         <v>1198</v>
       </c>
       <c r="G7" s="21" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="H7" s="21"/>
       <c r="I7" s="21"/>
@@ -10534,7 +10537,7 @@
       <c r="M7" s="21"/>
       <c r="N7" s="29"/>
       <c r="O7" s="21" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="P7" s="21"/>
       <c r="Q7" s="21"/>
@@ -10548,7 +10551,7 @@
         <v>573</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>1200</v>
@@ -10561,14 +10564,14 @@
       </c>
       <c r="G8" s="21"/>
       <c r="H8" s="21" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="21" t="s">
         <v>1202</v>
       </c>
       <c r="K8" s="21" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -10586,19 +10589,19 @@
         <v>573</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>1191</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
@@ -10609,7 +10612,7 @@
       <c r="N9" s="21"/>
       <c r="O9" s="21"/>
       <c r="P9" s="21" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
@@ -10622,10 +10625,10 @@
         <v>573</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>1195</v>
@@ -10635,7 +10638,7 @@
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="21" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
@@ -10646,7 +10649,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="21"/>
       <c r="Q10" s="21" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="R10" s="21"/>
     </row>
@@ -13213,7 +13216,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" prompt="Select an OCI Region" xr:uid="{03D11048-F290-6B43-BA8B-72D4CBD50156}">
           <x14:formula1>
-            <xm:f>AlarmsTable!$D$2:$D$54</xm:f>
+            <xm:f>AlarmsTable!$D$2:$D$55</xm:f>
           </x14:formula1>
           <xm:sqref>A4:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -13225,10 +13228,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13264,7 +13267,7 @@
         <v>652</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -13278,7 +13281,7 @@
         <v>655</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13292,7 +13295,7 @@
         <v>658</v>
       </c>
       <c r="D4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13311,7 +13314,7 @@
         <v>661</v>
       </c>
       <c r="D6" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13319,7 +13322,7 @@
         <v>662</v>
       </c>
       <c r="D7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13343,7 +13346,7 @@
         <v>665</v>
       </c>
       <c r="D10" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -13352,7 +13355,7 @@
       </c>
       <c r="C11" s="32"/>
       <c r="D11" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="E11" s="33"/>
     </row>
@@ -13361,7 +13364,7 @@
         <v>667</v>
       </c>
       <c r="D12" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -13393,7 +13396,7 @@
         <v>671</v>
       </c>
       <c r="D16" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13449,7 +13452,7 @@
         <v>678</v>
       </c>
       <c r="D23" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13457,7 +13460,7 @@
         <v>679</v>
       </c>
       <c r="D24" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13465,7 +13468,7 @@
         <v>680</v>
       </c>
       <c r="D25" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13481,7 +13484,7 @@
         <v>682</v>
       </c>
       <c r="D27" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13505,7 +13508,7 @@
         <v>685</v>
       </c>
       <c r="D30" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13529,7 +13532,7 @@
         <v>654</v>
       </c>
       <c r="D33" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="16" x14ac:dyDescent="0.2">
@@ -13545,158 +13548,163 @@
         <v>689</v>
       </c>
       <c r="D35" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B36" s="7" t="s">
-        <v>690</v>
-      </c>
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>1243</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D37" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D38" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D39" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>1261</v>
+        <v>693</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1223</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1225</v>
+        <v>694</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>1260</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="7" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D42" t="s">
-        <v>1217</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D43" t="s">
-        <v>1226</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>1262</v>
+        <v>697</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1225</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="D45" t="s">
-        <v>1238</v>
+        <v>698</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>1261</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D46" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>701</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>1263</v>
+        <v>700</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1238</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>702</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1227</v>
+        <v>701</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>1262</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D49" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D50" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>1264</v>
+        <v>704</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1228</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="7" t="s">
-        <v>706</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1230</v>
+        <v>705</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>1263</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D53" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="B55" s="7" t="s">
         <v>708</v>
       </c>
-      <c r="D54" s="36" t="s">
+      <c r="D55" s="36" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -15541,7 +15549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="V1" workbookViewId="0">
       <selection activeCell="Y19" sqref="Y19"/>
     </sheetView>
   </sheetViews>
@@ -17425,7 +17433,7 @@
         <v>589</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.2">

--- a/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
+++ b/cd3_automation_toolkit/example/CD3-CIS-ManagementServices-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop/cd3_automation_toolkit/example/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susingla/PyCharmProjects/orahub-develop1/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD136FD5-49B4-3D48-8C63-4712A74A4B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9A8B70-5702-6A48-9F42-DA0101531AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -4347,6 +4347,12 @@
     </r>
   </si>
   <si>
+    <t>Singapore-1</t>
+  </si>
+  <si>
+    <t>Singapore-2</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -4377,7 +4383,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Release - v2024.4.3</t>
+      <t xml:space="preserve">Release - v2025.2.0
+</t>
     </r>
     <r>
       <rPr>
@@ -4387,15 +4394,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
- Modified description in KMS sheet, Modified delimiters in ServiceConectors sheet</t>
+      <t xml:space="preserve">Modified Notifications backend code
+</t>
     </r>
-  </si>
-  <si>
-    <t>Singapore-1</t>
-  </si>
-  <si>
-    <t>Singapore-2</t>
   </si>
 </sst>
 </file>
@@ -6718,7 +6719,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6729,7 +6730,7 @@
     <row r="1" spans="1:1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
@@ -13548,12 +13549,12 @@
         <v>689</v>
       </c>
       <c r="D35" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="16" x14ac:dyDescent="0.2">
